--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -679,7 +679,8 @@
     <t>RxOut.RxOutpat.RxStatus</t>
   </si>
   <si>
-    <t>Medication.PharmacyStatus,Medication.VAStatus</t>
+    <t>Medication.PharmacyStatus
+Medication.VAStatus</t>
   </si>
   <si>
     <t>./code</t>
@@ -781,7 +782,8 @@
     <t>RxOut.RxOutpat.CancelDate</t>
   </si>
   <si>
-    <t>Medication.ToTime,Medication.DiscontinuedDateTime</t>
+    <t>Medication.ToTime
+Medication.DiscontinuedDateTime</t>
   </si>
   <si>
     <t>MedicationRequest.extension:medicationrequest-includeIndicationInSig</t>
@@ -1035,10 +1037,12 @@
     <t>RxOut.RxOutpat.RxNumber</t>
   </si>
   <si>
-    <t>Medication.PrescriptionNumber,Medication.FillDate</t>
-  </si>
-  <si>
-    <t>med.dose,pharmacy (med).dose</t>
+    <t>Medication.PrescriptionNumber
+Medication.FillDate</t>
+  </si>
+  <si>
+    <t>med.dose
+pharmacy (med).dose</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1451,13 +1455,18 @@
     <t>805: transform using null on PRESCRIPTION - DRUG &gt; DRUG - NATIONAL DRUG FILE ENTRY &gt; VA GENERIC - CODING SYSTEM &gt; CODING SYSTEM - CODE (52-6 &gt; 50-20 &gt; 50.6-5 &gt; 50.65-.02)</t>
   </si>
   <si>
-    <t>RxOut.RxOutpat.LocalDrugIEN,RxOut.RxOutpat.NationalDrugIEN,RxOut.RxOutpatFill.LocalDrugIEN,RxOut.RxOutpatFill.NationalDrugIEN</t>
-  </si>
-  <si>
-    <t>Medication.DrugProduct,Medication.CMOP</t>
-  </si>
-  <si>
-    <t>med.route (&gt;51.2-1),pharmacy (med).route (&gt;51.2-1)</t>
+    <t>RxOut.RxOutpat.LocalDrugIEN
+RxOut.RxOutpat.NationalDrugIEN
+RxOut.RxOutpatFill.LocalDrugIEN
+RxOut.RxOutpatFill.NationalDrugIEN</t>
+  </si>
+  <si>
+    <t>Medication.DrugProduct
+Medication.CMOP</t>
+  </si>
+  <si>
+    <t>med.route (&gt;51.2-1)
+pharmacy (med).route (&gt;51.2-1)</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.display</t>
@@ -1534,10 +1543,18 @@
     <t>806: reference based on PRESCRIPTION - PATIENT (52-2)</t>
   </si>
   <si>
-    <t>RxOut.ActivityLog.PatientIEN,RxOut.ActivityLogOtherComments.PatientIEN,RxOut.RxOutpat.PatientIEN,RxOut.RxOutpatExt.PatientIEN,RxOut.RxOutpatExt.PatientSID,RxOut.RxOutpatFill.PatientIEN,RxOut.RxOutpatMedInstructions.PatientIEN,RxOut.RxOutpatSig.PatientIEN</t>
-  </si>
-  <si>
-    <t>med.units (&gt;50.607-.01),pharmacy (med).units (&gt;50.607-.01)</t>
+    <t>RxOut.ActivityLog.PatientIEN
+RxOut.ActivityLogOtherComments.PatientIEN
+RxOut.RxOutpat.PatientIEN
+RxOut.RxOutpatExt.PatientIEN
+RxOut.RxOutpatExt.PatientSID
+RxOut.RxOutpatFill.PatientIEN
+RxOut.RxOutpatMedInstructions.PatientIEN
+RxOut.RxOutpatSig.PatientIEN</t>
+  </si>
+  <si>
+    <t>med.units (&gt;50.607-.01)
+pharmacy (med).units (&gt;50.607-.01)</t>
   </si>
   <si>
     <t>Request.subject</t>
@@ -1619,13 +1636,20 @@
     <t>807: source value based on PRESCRIPTION - ISSUE DATE (52-1)</t>
   </si>
   <si>
-    <t>RxOut.ActivityLog.IssueDateTime,RxOut.RxOutpat.IssueDate,RxOut.RxOutpatExt.IssueDateTime,RxOut.RxOutpatFill.IssueDate,RxOut.RxOutpatMedInstructions.IssueDate,RxOut.RxOutpatSig.IssueDate</t>
-  </si>
-  <si>
-    <t>Medication.VAStartDate,Medication.FillQuantity</t>
-  </si>
-  <si>
-    <t>med.unitsPerDose,pharmacy (med).unitsPerDose</t>
+    <t>RxOut.ActivityLog.IssueDateTime
+RxOut.RxOutpat.IssueDate
+RxOut.RxOutpatExt.IssueDateTime
+RxOut.RxOutpatFill.IssueDate
+RxOut.RxOutpatMedInstructions.IssueDate
+RxOut.RxOutpatSig.IssueDate</t>
+  </si>
+  <si>
+    <t>Medication.VAStartDate
+Medication.FillQuantity</t>
+  </si>
+  <si>
+    <t>med.unitsPerDose
+pharmacy (med).unitsPerDose</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1665,7 +1689,16 @@
     <t>Medication.OrderedBy</t>
   </si>
   <si>
-    <t>med.currentProvider (&gt;200-.01),med.currentProvider (&gt;200-8932.1),med.doseStart,med.doseStop,med.duration,pharmacy (med).currentProvider (&gt;200-.01),pharmacy (med).currentProvider (&gt;200-8932.1),pharmacy (med).doseStart,pharmacy (med).doseStop,pharmacy (med).duration</t>
+    <t>med.currentProvider (&gt;200-.01)
+med.currentProvider (&gt;200-8932.1)
+med.doseStart
+med.doseStop
+med.duration
+pharmacy (med).currentProvider (&gt;200-.01)
+pharmacy (med).currentProvider (&gt;200-8932.1)
+pharmacy (med).doseStart
+pharmacy (med).doseStop
+pharmacy (med).duration</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -2226,10 +2259,21 @@
     <t>RxOut.RxOutpatMedInstructions.MedRoute</t>
   </si>
   <si>
-    <t>Medication.DosageSteps,Medication.Route,Medication.DoseQuantity,Medication.DoseUoM,Medication.Duration,Medication.Frequency,Medication.TextInstruction,Medication.Conjunction,Medication.Noun,Medication.UnitsPerDose,Medication.Verb</t>
-  </si>
-  <si>
-    <t>med.dose [m],pharmacy (med).dose [m]</t>
+    <t>Medication.DosageSteps
+Medication.Route
+Medication.DoseQuantity
+Medication.DoseUoM
+Medication.Duration
+Medication.Frequency
+Medication.TextInstruction
+Medication.Conjunction
+Medication.Noun
+Medication.UnitsPerDose
+Medication.Verb</t>
+  </si>
+  <si>
+    <t>med.dose [m]
+pharmacy (med).dose [m]</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.display</t>
@@ -2841,10 +2885,12 @@
     <t>815: source value based on PRESCRIPTION - EXPIRATION DATE (52-26)</t>
   </si>
   <si>
-    <t>Medication.ToTime,Medication.Expires</t>
-  </si>
-  <si>
-    <t>med.expires,pharmacy (med).expires</t>
+    <t>Medication.ToTime
+Medication.Expires</t>
+  </si>
+  <si>
+    <t>med.expires
+pharmacy (med).expires</t>
   </si>
   <si>
     <t>./high</t>
@@ -2920,7 +2966,8 @@
     <t>Medication.OrderQuantity</t>
   </si>
   <si>
-    <t>med.schedule,pharmacy (med).schedule</t>
+    <t>med.schedule
+pharmacy (med).schedule</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.comparator</t>
@@ -2953,7 +3000,8 @@
     <t>Medication.DaysSupply</t>
   </si>
   <si>
-    <t>med.daysSupply,pharmacy (med).daysSupply</t>
+    <t>med.daysSupply
+pharmacy (med).daysSupply</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -3472,9 +3520,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="150.37109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="214.2421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="193.7578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="227.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="245.42578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
+++ b/docs/StructureDefinition-MedicationRequestOutpatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
